--- a/reports/재고분석.xlsx
+++ b/reports/재고분석.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +711,190 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>2025-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-3811-01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-10000-01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-10000-01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이태리 순모 네이비</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-10000-02</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>자동 원단 소요 처리</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-12</t>
         </is>
       </c>
     </row>
@@ -807,7 +991,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="6">
@@ -873,7 +1057,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.7</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="4">
